--- a/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
+++ b/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Contituyentes\LOGOS_partidos_politicos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49269368-35FA-46AD-9E1C-50B53CC04A26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Constituyentes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>logo_CiudadanosSomosTodos.png</t>
   </si>
@@ -167,13 +185,184 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Ciudadanos</t>
+  </si>
+  <si>
+    <t>Comunes</t>
+  </si>
+  <si>
+    <t>Convergencia Social</t>
+  </si>
+  <si>
+    <t>Democracia Cristiana</t>
+  </si>
+  <si>
+    <t>Evópoli</t>
+  </si>
+  <si>
+    <t>Federación Regionalista Verde Social</t>
+  </si>
+  <si>
+    <t>IND - Evópoli</t>
+  </si>
+  <si>
+    <t>IND - Partido Igualdad</t>
+  </si>
+  <si>
+    <t>IND - Renovación Nacional</t>
+  </si>
+  <si>
+    <t>Independiente</t>
+  </si>
+  <si>
+    <t>Independientes No Neutrales</t>
+  </si>
+  <si>
+    <t>La Lista del Pueblo</t>
+  </si>
+  <si>
+    <t>Partido Comunista de Chile</t>
+  </si>
+  <si>
+    <t>Partido Conservador Cristiano</t>
+  </si>
+  <si>
+    <t>Partido De Trabajadores Revolucionarios</t>
+  </si>
+  <si>
+    <t>Partido Ecologista Verde</t>
+  </si>
+  <si>
+    <t>Partido Humanista</t>
+  </si>
+  <si>
+    <t>Partido Igualdad</t>
+  </si>
+  <si>
+    <t>Partido Liberal de Chile</t>
+  </si>
+  <si>
+    <t>Partido Nacional Ciudadano</t>
+  </si>
+  <si>
+    <t>Partido por la Democracia</t>
+  </si>
+  <si>
+    <t>Partido Radical de Chile</t>
+  </si>
+  <si>
+    <t>Partido Republicano</t>
+  </si>
+  <si>
+    <t>Partido Socialista de Chile</t>
+  </si>
+  <si>
+    <t>Partido Unión Patriótica</t>
+  </si>
+  <si>
+    <t>Renovación Nacional</t>
+  </si>
+  <si>
+    <t>Revolución Democrática</t>
+  </si>
+  <si>
+    <t>Unión Demócrata Independiente</t>
+  </si>
+  <si>
+    <t>Partido</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_CiudadanosSomosTodos.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Comunes.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial_Independientes.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_FederacionRegionalistaVerdeSocial.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli_Independientes.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad_Independientes.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional_Independientes.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Independientes.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_IndependientesNoNeutrales.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_LaListaDelPueblo.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoComunista.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoConservadorCristiano.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDeTrabajadoresRevolucionarios.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoEcologistaVerde.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoHumanista.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoLiberal.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoNacionalCiudadano.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoPorLaDemocracia.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRadical.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRepublicano.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoSocialista.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionPatriotica.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_RevolucionDemocratica.png</t>
+  </si>
+  <si>
+    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,9 +414,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -236,6 +428,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -282,7 +482,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,9 +514,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,6 +566,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,462 +759,808 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B50"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="str">
         <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A2</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_CiudadanosSomosTodos.png</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A3</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Comunes.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A4</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A5</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial_Independientes.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A6</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A7</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_FederacionRegionalistaVerdeSocial.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A8</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli_Independientes.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A9</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad_Independientes.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A10</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional_Independientes.png</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A11</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Independientes.png</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A12</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_IndependientesNoNeutrales.png</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A13</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_LaListaDelPueblo.png</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A14</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoComunista.png</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A15</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoConservadorCristiano.png</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A16</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDeTrabajadoresRevolucionarios.png</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A17</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoEcologistaVerde.png</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A18</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoHumanista.png</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A19</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad.png</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A20</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoLiberal.png</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A21</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoNacionalCiudadano.png</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A22</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoPorLaDemocracia.png</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A23</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRadical.png</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A24</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRepublicano.png</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A25</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoSocialista.png</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A26</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionPatriotica.png</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A27</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional.png</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A28</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_RevolucionDemocratica.png</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A29</f>
+        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente.png</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B50" si="0">"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A3</f>
+      <c r="C30" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A30</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_CiudadanosSomosTodos_Independientes.png</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Comunes.png</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
+      <c r="C31" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A31</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Comunes_Independientes.png</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial.png</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial_Independientes.png</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli.png</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli_Independientes.png</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_FederacionRegionalistaVerdeSocial.png</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
+      <c r="C32" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A32</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_FederacionRegionalistaVerdeSocial_Independientes.png</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Independientes.png</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_IndependientesNoNeutrales.png</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
+      <c r="C33" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A33</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_IndependientesNoNeutrales_Independientes.png</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_LaListaDelPueblo.png</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
+      <c r="C34" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A34</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_LaListaDelPueblo_Independientes.png</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoComunista.png</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
+      <c r="C35" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A35</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoComunista_Independientes.png</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoConservadorCristiano.png</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
+      <c r="C36" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A36</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoConservadorCristiano_Independientes.png</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
+      <c r="C37" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A37</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDemocraciaCristiana.png</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
+      <c r="C38" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A38</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDemocraciaCristiana_Independientes.png</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDeTrabajadoresRevolucionarios.png</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
+      <c r="C39" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A39</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDeTrabajadoresRevolucionarios_Independientes.png</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoEcologistaVerde.png</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
+      <c r="C40" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A40</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoEcologistaVerde_Independientes.png</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoHumanista.png</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
+      <c r="C41" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A41</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoHumanista_Independientes.png</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad.png</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad_Independientes.png</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoLiberal.png</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
+      <c r="C42" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A42</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoLiberal_Independientes.png</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoNacionalCiudadano.png</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
+      <c r="C43" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A43</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoNacionalCiudadano_Independientes.png</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoPorLaDemocracia.png</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
+      <c r="C44" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A44</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoPorLaDemocracia_Independientes.png</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRadical.png</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
+      <c r="C45" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A45</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRadical_Independientes.png</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional.png</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional_Independientes.png</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRepublicano.png</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
+      <c r="C46" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A46</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRepublicano_Independientes.png</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoSocialista.png</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
+      <c r="C47" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A47</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoSocialista_Independientes.png</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_RevolucionDemocratica.png</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
+      <c r="C48" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A48</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_RevolucionDemocratica_Independientes.png</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente.png</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
+      <c r="C49" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A49</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente_Independientes.png</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionPatriotica.png</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
+      <c r="C50" t="str">
+        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A50</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionPatriotica_independientes.png</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition ref="B2:B50"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85FDC07-B256-4C4E-BD0D-DF3C97F0BE36}">
+  <dimension ref="B3:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
+++ b/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Contituyentes\LOGOS_partidos_politicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49269368-35FA-46AD-9E1C-50B53CC04A26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29874FAE-E1FE-45CA-90F7-CFB002960B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Constituyentes" sheetId="2" r:id="rId2"/>
+    <sheet name="Gobernadores" sheetId="3" r:id="rId3"/>
+    <sheet name="Alcaldes y Concejales" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
   <si>
     <t>logo_CiudadanosSomosTodos.png</t>
   </si>
@@ -356,6 +358,102 @@
   </si>
   <si>
     <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente.png</t>
+  </si>
+  <si>
+    <t>CANDIDATURA INDEPENDIENTE</t>
+  </si>
+  <si>
+    <t>COMUNES</t>
+  </si>
+  <si>
+    <t>COMUNISTA DE CHILE</t>
+  </si>
+  <si>
+    <t>EVOLUCIÓN POLÍTICA</t>
+  </si>
+  <si>
+    <t>FEDERACIÓN REGIONALISTA VERDE SOCIAL</t>
+  </si>
+  <si>
+    <t>IGUALDAD</t>
+  </si>
+  <si>
+    <t>PARTIDO DEMÓCRATA CRISTIANO</t>
+  </si>
+  <si>
+    <t>PARTIDO ECOLOGISTA VERDE</t>
+  </si>
+  <si>
+    <t>PARTIDO HUMANISTA</t>
+  </si>
+  <si>
+    <t>PARTIDO NACIONAL CIUDADANO</t>
+  </si>
+  <si>
+    <t>PARTIDO POR LA DEMOCRACIA</t>
+  </si>
+  <si>
+    <t>PARTIDO REGIONALISTA INDEPENDIENTE DEMÓCRATA</t>
+  </si>
+  <si>
+    <t>PARTIDO UNIÓN PATRIÓTICA</t>
+  </si>
+  <si>
+    <t>RENOVACIÓN NACIONAL</t>
+  </si>
+  <si>
+    <t>REPUBLICANO DE CHILE</t>
+  </si>
+  <si>
+    <t>REVOLUCIÓN DEMOCRÁTICA</t>
+  </si>
+  <si>
+    <t>UNIÓN DEMÓCRATA INDEPENDIENTE</t>
+  </si>
+  <si>
+    <t>Regionalista Independiente Demócrata</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/2/23/PRI_Chile_2019.png</t>
+  </si>
+  <si>
+    <t>CIUDADANOS</t>
+  </si>
+  <si>
+    <t>CONVERGENCIA SOCIAL</t>
+  </si>
+  <si>
+    <t>NUEVO TIEMPO</t>
+  </si>
+  <si>
+    <t>PARTIDO CONSERVADOR CRISTIANO</t>
+  </si>
+  <si>
+    <t>PARTIDO LIBERAL DE CHILE</t>
+  </si>
+  <si>
+    <t>PARTIDO PROGRESISTA DE CHILE</t>
+  </si>
+  <si>
+    <t>PARTIDO RADICAL DE CHILE</t>
+  </si>
+  <si>
+    <t>PARTIDO SOCIALISTA DE CHILE</t>
+  </si>
+  <si>
+    <t>PARTIDO TRABAJADORES REVOLUCIONARIOS</t>
+  </si>
+  <si>
+    <t>Partido Nuevo Tiempo</t>
+  </si>
+  <si>
+    <t>Partido Progresista de Chile</t>
+  </si>
+  <si>
+    <t>http://www.partidonuevotiempo.cl/wp-content/uploads/2016/09/Logotipo-color.png</t>
+  </si>
+  <si>
+    <t>https://www.progresistas.cl/wp-content/uploads/2019/04/Logo-menu%CC%81.png</t>
   </si>
 </sst>
 </file>
@@ -762,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,7 +890,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A2</f>
+        <f t="shared" ref="C2:C33" si="0">"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A2</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_CiudadanosSomosTodos.png</v>
       </c>
     </row>
@@ -804,7 +902,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A3</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Comunes.png</v>
       </c>
     </row>
@@ -816,7 +914,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A4</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial.png</v>
       </c>
     </row>
@@ -828,7 +926,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A5</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial_Independientes.png</v>
       </c>
     </row>
@@ -840,7 +938,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A6</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli.png</v>
       </c>
     </row>
@@ -852,7 +950,7 @@
         <v>56</v>
       </c>
       <c r="C7" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A7</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_FederacionRegionalistaVerdeSocial.png</v>
       </c>
     </row>
@@ -864,7 +962,7 @@
         <v>57</v>
       </c>
       <c r="C8" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A8</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli_Independientes.png</v>
       </c>
     </row>
@@ -876,7 +974,7 @@
         <v>58</v>
       </c>
       <c r="C9" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A9</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad_Independientes.png</v>
       </c>
     </row>
@@ -888,7 +986,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A10</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional_Independientes.png</v>
       </c>
     </row>
@@ -900,7 +998,7 @@
         <v>60</v>
       </c>
       <c r="C11" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A11</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Independientes.png</v>
       </c>
     </row>
@@ -912,7 +1010,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A12</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_IndependientesNoNeutrales.png</v>
       </c>
     </row>
@@ -924,7 +1022,7 @@
         <v>62</v>
       </c>
       <c r="C13" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A13</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_LaListaDelPueblo.png</v>
       </c>
     </row>
@@ -936,7 +1034,7 @@
         <v>63</v>
       </c>
       <c r="C14" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A14</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoComunista.png</v>
       </c>
     </row>
@@ -948,7 +1046,7 @@
         <v>64</v>
       </c>
       <c r="C15" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A15</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoConservadorCristiano.png</v>
       </c>
     </row>
@@ -960,7 +1058,7 @@
         <v>65</v>
       </c>
       <c r="C16" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A16</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDeTrabajadoresRevolucionarios.png</v>
       </c>
     </row>
@@ -972,7 +1070,7 @@
         <v>66</v>
       </c>
       <c r="C17" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A17</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoEcologistaVerde.png</v>
       </c>
     </row>
@@ -984,7 +1082,7 @@
         <v>67</v>
       </c>
       <c r="C18" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A18</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoHumanista.png</v>
       </c>
     </row>
@@ -996,7 +1094,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A19</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoIgualdad.png</v>
       </c>
     </row>
@@ -1008,7 +1106,7 @@
         <v>69</v>
       </c>
       <c r="C20" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A20</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoLiberal.png</v>
       </c>
     </row>
@@ -1020,7 +1118,7 @@
         <v>70</v>
       </c>
       <c r="C21" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A21</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoNacionalCiudadano.png</v>
       </c>
     </row>
@@ -1032,7 +1130,7 @@
         <v>71</v>
       </c>
       <c r="C22" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A22</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoPorLaDemocracia.png</v>
       </c>
     </row>
@@ -1044,7 +1142,7 @@
         <v>72</v>
       </c>
       <c r="C23" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A23</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRadical.png</v>
       </c>
     </row>
@@ -1056,7 +1154,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A24</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRepublicano.png</v>
       </c>
     </row>
@@ -1068,7 +1166,7 @@
         <v>74</v>
       </c>
       <c r="C25" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A25</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoSocialista.png</v>
       </c>
     </row>
@@ -1080,7 +1178,7 @@
         <v>75</v>
       </c>
       <c r="C26" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A26</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionPatriotica.png</v>
       </c>
     </row>
@@ -1092,7 +1190,7 @@
         <v>76</v>
       </c>
       <c r="C27" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A27</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRenovacionNacional.png</v>
       </c>
     </row>
@@ -1104,7 +1202,7 @@
         <v>77</v>
       </c>
       <c r="C28" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A28</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_RevolucionDemocratica.png</v>
       </c>
     </row>
@@ -1116,7 +1214,7 @@
         <v>78</v>
       </c>
       <c r="C29" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A29</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente.png</v>
       </c>
     </row>
@@ -1125,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A30</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_CiudadanosSomosTodos_Independientes.png</v>
       </c>
     </row>
@@ -1134,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A31</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Comunes_Independientes.png</v>
       </c>
     </row>
@@ -1143,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="C32" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A32</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_FederacionRegionalistaVerdeSocial_Independientes.png</v>
       </c>
     </row>
@@ -1152,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A33</f>
+        <f t="shared" si="0"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_IndependientesNoNeutrales_Independientes.png</v>
       </c>
     </row>
@@ -1161,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="C34" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A34</f>
+        <f t="shared" ref="C34:C50" si="1">"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A34</f>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_LaListaDelPueblo_Independientes.png</v>
       </c>
     </row>
@@ -1170,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="C35" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A35</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoComunista_Independientes.png</v>
       </c>
     </row>
@@ -1179,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="C36" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A36</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoConservadorCristiano_Independientes.png</v>
       </c>
     </row>
@@ -1188,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="C37" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A37</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDemocraciaCristiana.png</v>
       </c>
     </row>
@@ -1197,7 +1295,7 @@
         <v>20</v>
       </c>
       <c r="C38" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A38</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDemocraciaCristiana_Independientes.png</v>
       </c>
     </row>
@@ -1206,7 +1304,7 @@
         <v>22</v>
       </c>
       <c r="C39" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A39</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDeTrabajadoresRevolucionarios_Independientes.png</v>
       </c>
     </row>
@@ -1215,7 +1313,7 @@
         <v>24</v>
       </c>
       <c r="C40" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A40</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoEcologistaVerde_Independientes.png</v>
       </c>
     </row>
@@ -1224,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A41</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoHumanista_Independientes.png</v>
       </c>
     </row>
@@ -1233,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="C42" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A42</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoLiberal_Independientes.png</v>
       </c>
     </row>
@@ -1242,7 +1340,7 @@
         <v>32</v>
       </c>
       <c r="C43" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A43</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoNacionalCiudadano_Independientes.png</v>
       </c>
     </row>
@@ -1251,7 +1349,7 @@
         <v>34</v>
       </c>
       <c r="C44" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A44</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoPorLaDemocracia_Independientes.png</v>
       </c>
     </row>
@@ -1260,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="C45" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A45</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRadical_Independientes.png</v>
       </c>
     </row>
@@ -1269,7 +1367,7 @@
         <v>40</v>
       </c>
       <c r="C46" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A46</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoRepublicano_Independientes.png</v>
       </c>
     </row>
@@ -1278,7 +1376,7 @@
         <v>42</v>
       </c>
       <c r="C47" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A47</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoSocialista_Independientes.png</v>
       </c>
     </row>
@@ -1287,7 +1385,7 @@
         <v>44</v>
       </c>
       <c r="C48" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A48</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_RevolucionDemocratica_Independientes.png</v>
       </c>
     </row>
@@ -1296,7 +1394,7 @@
         <v>46</v>
       </c>
       <c r="C49" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A49</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionDemocrataIndependiente_Independientes.png</v>
       </c>
     </row>
@@ -1305,7 +1403,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="str">
-        <f>"https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/"&amp;A50</f>
+        <f t="shared" si="1"/>
         <v>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_UnionPatriotica_independientes.png</v>
       </c>
     </row>
@@ -1321,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85FDC07-B256-4C4E-BD0D-DF3C97F0BE36}">
   <dimension ref="B3:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,4 +1664,664 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A484D3-A4D9-460D-A6FE-5430300249B3}">
+  <dimension ref="D3:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:F31">
+    <sortCondition ref="D3:D31"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622CEBE-B674-4037-BCCC-63A774BAC4AF}">
+  <dimension ref="E3:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
+++ b/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Contituyentes\LOGOS_partidos_politicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29874FAE-E1FE-45CA-90F7-CFB002960B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684100DF-3404-470D-81E5-7C37C9E0F99A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="140">
   <si>
     <t>logo_CiudadanosSomosTodos.png</t>
   </si>
@@ -485,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -508,17 +508,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85FDC07-B256-4C4E-BD0D-DF3C97F0BE36}">
   <dimension ref="B3:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,8 +1684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A484D3-A4D9-460D-A6FE-5430300249B3}">
   <dimension ref="D3:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:F14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,6 +1883,7 @@
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
       <c r="E20" t="s">
         <v>51</v>
       </c>
@@ -1957,6 +1972,9 @@
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="E31" t="s">
         <v>74</v>
       </c>
@@ -1976,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622CEBE-B674-4037-BCCC-63A774BAC4AF}">
   <dimension ref="E3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
+++ b/Contituyentes/LOGOS_partidos_politicos/Logos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-ELECCIONES\Contituyentes\LOGOS_partidos_politicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684100DF-3404-470D-81E5-7C37C9E0F99A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A18CC00-22AB-4090-A0EA-04A6C7D052B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial.png</t>
   </si>
   <si>
-    <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_ConvergenciaSocial_Independientes.png</t>
-  </si>
-  <si>
     <t>https://github.com/Sud-Austral/DATA-ELECCIONES/raw/master/Contituyentes/LOGOS_partidos_politicos/logo_Evopoli.png</t>
   </si>
   <si>
@@ -454,13 +451,16 @@
   </si>
   <si>
     <t>https://www.progresistas.cl/wp-content/uploads/2019/04/Logo-menu%CC%81.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Sud-Austral/DATA-ELECCIONES/master/Contituyentes/LOGOS_partidos_politicos/logo_PartidoDemocraciaCristiana.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +472,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -520,10 +528,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -534,8 +543,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -874,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85FDC07-B256-4C4E-BD0D-DF3C97F0BE36}">
   <dimension ref="B3:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,8 +1490,8 @@
       <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
-        <v>83</v>
+      <c r="C7" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -1488,7 +1499,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -1496,7 +1507,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -1504,7 +1515,7 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -1512,7 +1523,7 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -1520,7 +1531,7 @@
         <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -1528,7 +1539,7 @@
         <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -1536,7 +1547,7 @@
         <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -1544,7 +1555,7 @@
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -1552,7 +1563,7 @@
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -1560,7 +1571,7 @@
         <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -1568,7 +1579,7 @@
         <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -1576,7 +1587,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -1584,7 +1595,7 @@
         <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -1592,7 +1603,7 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -1600,7 +1611,7 @@
         <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -1608,7 +1619,7 @@
         <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -1616,7 +1627,7 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -1624,7 +1635,7 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -1632,7 +1643,7 @@
         <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -1640,7 +1651,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -1648,7 +1659,7 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
@@ -1656,7 +1667,7 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
@@ -1664,7 +1675,7 @@
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
@@ -1672,10 +1683,13 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{E66C9156-2A25-4251-B6B6-21C731529AAD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1685,7 +1699,7 @@
   <dimension ref="D3:F31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,18 +1711,18 @@
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
@@ -1719,167 +1733,167 @@
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
         <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
         <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
         <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" t="s">
         <v>125</v>
-      </c>
-      <c r="F14" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
         <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.3">
@@ -1904,7 +1918,7 @@
         <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.3">
@@ -1912,7 +1926,7 @@
         <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.3">
@@ -1920,7 +1934,7 @@
         <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.3">
@@ -1928,7 +1942,7 @@
         <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.3">
@@ -1936,7 +1950,7 @@
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.3">
@@ -1944,7 +1958,7 @@
         <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.3">
@@ -1952,7 +1966,7 @@
         <v>65</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.3">
@@ -1960,7 +1974,7 @@
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.3">
@@ -1968,18 +1982,18 @@
         <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1994,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1622CEBE-B674-4037-BCCC-63A774BAC4AF}">
   <dimension ref="E3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:G19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,7 +2029,7 @@
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2026,7 +2040,7 @@
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>52</v>
@@ -2037,7 +2051,7 @@
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>
@@ -2048,35 +2062,35 @@
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" t="s">
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
         <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
         <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
@@ -2084,7 +2098,7 @@
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
@@ -2092,7 +2106,7 @@
         <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.3">
@@ -2100,18 +2114,18 @@
         <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
         <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.3">
@@ -2119,7 +2133,7 @@
         <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.3">
@@ -2127,216 +2141,216 @@
         <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
         <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" t="s">
         <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F19" t="s">
         <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" t="s">
         <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
         <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
         <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
         <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
         <v>73</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
         <v>78</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
         <v>125</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
